--- a/story/Activity Story 活动剧情/act6d5 Ancient Forge 洪炉示岁 洪炉示歳/level_act6d5_st02.xlsx
+++ b/story/Activity Story 活动剧情/act6d5 Ancient Forge 洪炉示岁 洪炉示歳/level_act6d5_st02.xlsx
@@ -3308,7 +3308,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="L.G.D. Officer"]   Do you copy? All targets in Sector 7 are confirmed to be "Terracotta"!
+    <t xml:space="preserve">[name="L.G.D. Officer"]   Do you copy? All targets in Sector 7 are confirmed to be 'Terracotta'!
 </t>
   </si>
   <si>
@@ -3448,11 +3448,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]   "Terracotta." A fitting name.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Fumizuki"]   Calling them "Reunion" would cause unnecessary panic, Officer Ch'en. They are not flesh and blood people.
+    <t xml:space="preserve">[name="Ch'en"]   'Terracotta.' A fitting name.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Fumizuki"]   Calling them 'Reunion' would cause unnecessary panic, Officer Ch'en. They are not flesh and blood people.
 </t>
   </si>
   <si>
@@ -3464,7 +3464,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Fumizuki"]   We've been unable to discern the true nature of the "Terracottas," but their strength has continued to grow over the past few hours.
+    <t xml:space="preserve">[name="Wei Fumizuki"]   We've been unable to discern the true nature of the 'Terracottas,' but their strength has continued to grow over the past few hours.
 </t>
   </si>
   <si>
@@ -3500,7 +3500,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Fumizuki"]   Our conventional methods have failed. We have no indication of how the enemy "appeared."
+    <t xml:space="preserve">[name="Wei Fumizuki"]   Our conventional methods have failed. We have no indication of how the enemy 'appeared.'
 </t>
   </si>
   <si>
@@ -3728,7 +3728,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Fumizuki"]   The leader of our partner organization, Rhodes Island Pharmaceuticals. I believe we can put it that way for now. "Doctor" is the appropriate form of address.
+    <t xml:space="preserve">[name="Wei Fumizuki"]   The leader of our partner organization, Rhodes Island Pharmaceuticals. I believe we can put it that way for now. 'Doctor' is the appropriate form of address.
 </t>
   </si>
   <si>
@@ -3736,7 +3736,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="L.G.D. Officer"]   All information on the "Terracottas" has been disseminated to all members of the L.G.D. through the terminal.
+    <t xml:space="preserve">[name="L.G.D. Officer"]   All information on the 'Terracottas' has been disseminated to all members of the L.G.D. through the terminal.
 </t>
   </si>
   <si>
@@ -3756,7 +3756,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="L.G.D. Officer"]   We can't confirm that the "Terracottas" are directly connected to the heat source. And it is likely that the defensive line will collapse if we reallocate manpower.
+    <t xml:space="preserve">[name="L.G.D. Officer"]   We can't confirm that the 'Terracottas' are directly connected to the heat source. And it is likely that the defensive line will collapse if we reallocate manpower.
 </t>
   </si>
   <si>
@@ -3808,11 +3808,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Fumizuki"]   Nian sightings have become less and less common since the development of nomadic city technology. We have not had the opportunity to study the "Nian".
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Fumizuki"]   The L.G.D. will do whatever it takes to uncover the secret of the "Nian," even if it's just the tip of the iceberg.
+    <t xml:space="preserve">[name="Wei Fumizuki"]   Nian sightings have become less and less common since the development of nomadic city technology. We have not had the opportunity to study the 'Nian'.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Fumizuki"]   The L.G.D. will do whatever it takes to uncover the secret of the 'Nian,' even if it's just the tip of the iceberg.
 </t>
   </si>
   <si>
@@ -4052,7 +4052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Back-Alley Doctor"]   I think you've got it a bit twisted, Waai Fu. I'm afraid these aren't quite "people," you know?
+    <t xml:space="preserve">[name="Back-Alley Doctor"]   I think you've got it a bit twisted, Waai Fu. I'm afraid these aren't quite 'people,' you know?
 </t>
   </si>
   <si>
@@ -4244,7 +4244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Back-Alley Doctor"]   By the way, Hung, aren't you curious about the "Nian"?
+    <t xml:space="preserve">[name="Back-Alley Doctor"]   By the way, Hung, aren't you curious about the 'Nian'?
 </t>
   </si>
   <si>
@@ -4336,7 +4336,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]   Isn't a sweet little show like that supposed to make you think, "Oh, maybe she's not so bad," and lower the dagger?
+    <t xml:space="preserve">[name="???"]   Isn't a sweet little show like that supposed to make you think, 'Oh, maybe she's not so bad,' and lower the dagger?
 </t>
   </si>
   <si>
@@ -4368,7 +4368,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lava"]   Besides, there's no way you could understand us, "Nian".
+    <t xml:space="preserve">[name="Lava"]   Besides, there's no way you could understand us, 'Nian'.
 </t>
   </si>
   <si>
@@ -4376,7 +4376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nian"]   That's what they used to call me, but I don't think "Nian" is cool enough. Can we change it? I want a badass codename like "Lava."
+    <t xml:space="preserve">[name="Nian"]   That's what they used to call me, but I don't think 'Nian' is cool enough. Can we change it? I want a badass codename like 'Lava.'
 </t>
   </si>
   <si>
@@ -4516,7 +4516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nian"]   Is this like a "surrender now and I'll let you live" thing?
+    <t xml:space="preserve">[name="Nian"]   Is this like a 'surrender now and I'll let you live' thing?
 </t>
   </si>
   <si>
@@ -4660,7 +4660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nian"]   But I do have one teensy little question. How did you come up with all this stuff while I, or I guess "we," were snoozing away?
+    <t xml:space="preserve">[name="Nian"]   But I do have one teensy little question. How did you come up with all this stuff while I, or I guess 'we,' were snoozing away?
 </t>
   </si>
   <si>
@@ -4768,7 +4768,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lava"]   "The heart of the crucible is... nothing but straw!"
+    <t xml:space="preserve">[name="Lava"]   'The heart of the crucible is... nothing but straw!'
 </t>
   </si>
   <si>
@@ -4808,7 +4808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lava"]   Old folk sayings like "the din of fireworks rings in the new year" and such.
+    <t xml:space="preserve">[name="Lava"]   Old folk sayings like 'the din of fireworks rings in the new year' and such.
 </t>
   </si>
   <si>
@@ -4868,7 +4868,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lava"]   So this is the power of the "Nian," huh? I'm not impressed.
+    <t xml:space="preserve">[name="Lava"]   So this is the power of the 'Nian,' huh? I'm not impressed.
 </t>
   </si>
   <si>
@@ -4916,7 +4916,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nian"]   "Heavenly forge, take the bounty of the earth and smelt an edge to slice the sky!"
+    <t xml:space="preserve">[name="Nian"]   'Heavenly forge, take the bounty of the earth and smelt an edge to slice the sky!'
 </t>
   </si>
   <si>
@@ -5260,7 +5260,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="오니 누님"]   아니, 그거 말고. 너희 근위국 놈들은 평소에 대체 어떤 놈들이랑 나다니는 거냐? 우르수스 사람? 아니면 지앙치 사람?
+    <t xml:space="preserve">[name="오니 누님"]   아니, 그거 말고. 너희 근위국 놈들은 평소에 대체 어떤 놈들이랑 나다니는 거냐? 우르수스 사람? 아니면 강제 사람?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act6d5 Ancient Forge 洪炉示岁 洪炉示歳/level_act6d5_st02.xlsx
+++ b/story/Activity Story 活动剧情/act6d5 Ancient Forge 洪炉示岁 洪炉示歳/level_act6d5_st02.xlsx
@@ -3800,7 +3800,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Snowsant"]   Maybe we'd b-b-b-better not do it…
+    <t xml:space="preserve">[name="Snowsant"]   Maybe we'd b-b-b-better not do it...
 </t>
   </si>
   <si>
